--- a/biology/Zoologie/Gonatodes_antillensis/Gonatodes_antillensis.xlsx
+++ b/biology/Zoologie/Gonatodes_antillensis/Gonatodes_antillensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonatodes antillensis est une espèce de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonatodes antillensis est une espèce de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux Pays-Bas dans les îles Bonaire, Aruba et Curaçao ;
 dans le nord du Venezuela ainsi que sur les îles Isla de Aves et La Orchila.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œufs incubent un peu plus de deux mois à 28 °C.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lidth de Jeude, 1887 : On a collection of reptiles and fishes from the West-Indies.  Notes from the Leyden Museum, vol. 9, p. 129-139 (texte intégral).</t>
         </is>
